--- a/KCOR_Deviation_by_Age_and_Frailty.xlsx
+++ b/KCOR_Deviation_by_Age_and_Frailty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6AF430EB-1423-4687-9D9B-9B8C06DDF018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CD7E2FA7-4879-4D87-9E15-6FCDAF4DCD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B3B50EB5-49AA-4A9A-B525-3CEEA2714A21}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>Note that this table uses frailty which is constant for a cohort. It is NOT the ACM ratio of vaxxed/unvaxxed. You have to use the other spreadsheet, measure the ACM ratio and back it into find the correct frailty factor for the cohort you are observing.</t>
   </si>
   <si>
-    <t>KCOR deviation caused by frailty and age of the cohort</t>
+    <t>Given a frailty ratio and age, shows the KCOR distortion for that cohort</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/KCOR_Deviation_by_Age_and_Frailty.xlsx
+++ b/KCOR_Deviation_by_Age_and_Frailty.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CD7E2FA7-4879-4D87-9E15-6FCDAF4DCD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09020429-6D20-495F-8E81-75CBE029CE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B3B50EB5-49AA-4A9A-B525-3CEEA2714A21}"/>
   </bookViews>
   <sheets>
     <sheet name="KCOR_Deviation_by_Age_and_Frail" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,10 +65,10 @@
     <t>So an 85 year old cohort with a 3X frailty will have a -6.5% impact on slope making the vaccinated look worse than they really are</t>
   </si>
   <si>
-    <t>Note that this table uses frailty which is constant for a cohort. It is NOT the ACM ratio of vaxxed/unvaxxed. You have to use the other spreadsheet, measure the ACM ratio and back it into find the correct frailty factor for the cohort you are observing.</t>
+    <t>Given a frailty ratio and age, shows the KCOR distortion for that cohort</t>
   </si>
   <si>
-    <t>Given a frailty ratio and age, shows the KCOR distortion for that cohort</t>
+    <t>You can use the directly measured ACM ratios of the two cohorts to establish the frailty at that age. That's the easiest.</t>
   </si>
 </sst>
 </file>
@@ -921,14 +934,14 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1043,7 +1056,7 @@
         <v>-3.73E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">

--- a/KCOR_Deviation_by_Age_and_Frailty.xlsx
+++ b/KCOR_Deviation_by_Age_and_Frailty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09020429-6D20-495F-8E81-75CBE029CE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F48731-9F11-415D-8530-1C40C172BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B3B50EB5-49AA-4A9A-B525-3CEEA2714A21}"/>
   </bookViews>
@@ -59,16 +59,16 @@
     <t>5.0x</t>
   </si>
   <si>
-    <t>The purpose of this table is to show the KCOR deviation due to frailty rate and age of the cohort.</t>
-  </si>
-  <si>
     <t>So an 85 year old cohort with a 3X frailty will have a -6.5% impact on slope making the vaccinated look worse than they really are</t>
   </si>
   <si>
-    <t>Given a frailty ratio and age, shows the KCOR distortion for that cohort</t>
+    <t>You can use the directly measured ACM ratios of the two cohorts to establish the frailty at that age. That's the easiest.</t>
   </si>
   <si>
-    <t>You can use the directly measured ACM ratios of the two cohorts to establish the frailty at that age. That's the easiest.</t>
+    <t>The purpose of this table is to show the KCOR deviation due to frailty rate and age of the cohort over a 12 month period.</t>
+  </si>
+  <si>
+    <t>Given a frailty ratio and age, shows the KCOR distortion for that cohort over 12 months</t>
   </si>
 </sst>
 </file>
@@ -934,19 +934,19 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1001,7 +1001,7 @@
         <v>-1.6199999999999999E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1056,7 +1056,7 @@
         <v>-3.73E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
